--- a/R_analyses/Report/rnasep1_Stats_summary.xlsx
+++ b/R_analyses/Report/rnasep1_Stats_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsoldo01/Documents/Recherche/rnasep/R_analyses/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC3BDA8-AEC4-8B46-8173-53379BF0E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D120955-E647-BA43-BABF-82ECBBFAC31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15880" xr2:uid="{956BAD87-3458-454F-97A4-D25EAD4B8556}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Metric</t>
   </si>
   <si>
-    <t>Assembly_Raw</t>
-  </si>
-  <si>
-    <t>Assembly_Thin</t>
-  </si>
-  <si>
     <t>Number of Trinity "genes"</t>
   </si>
   <si>
@@ -150,6 +144,27 @@
   </si>
   <si>
     <t>94.7</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>FullLength</t>
+  </si>
+  <si>
+    <t>ReadContent</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Thin</t>
   </si>
 </sst>
 </file>
@@ -231,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -260,6 +275,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F1873A-10D7-D443-81A4-AF70D36CD01E}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,22 +624,26 @@
     <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>207672</v>
@@ -629,10 +651,13 @@
       <c r="C2" s="3">
         <v>204818</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>282660</v>
@@ -640,21 +665,27 @@
       <c r="C3" s="3">
         <v>244772</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>174</v>
@@ -662,10 +693,13 @@
       <c r="C5" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>36551</v>
@@ -673,21 +707,27 @@
       <c r="C6" s="3">
         <v>36551</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -695,10 +735,13 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -706,10 +749,13 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>758</v>
@@ -717,10 +763,13 @@
       <c r="C10" s="3">
         <v>764</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>1932</v>
@@ -728,10 +777,13 @@
       <c r="C11" s="3">
         <v>1923</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8">
         <v>35681</v>
@@ -739,65 +791,83 @@
       <c r="C12" s="3">
         <v>26968</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>1295</v>
@@ -805,10 +875,13 @@
       <c r="C18" s="3">
         <v>1374</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>4901</v>
@@ -816,16 +889,22 @@
       <c r="C19" s="3">
         <v>5174</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
